--- a/Отчёт по проводкам_Название компании.xlsx
+++ b/Отчёт по проводкам_Название компании.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pushin_in\Desktop\Новая папка\general_osv_and_amortization_distribution_by_folders\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3EAC6D-75D8-40F7-AB84-8E0B4B6BEF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4115E83-7702-4AFC-95E0-2B1DA386EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,6 +381,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -421,27 +437,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,18 +782,18 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="1.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -813,44 +808,44 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10" ht="94.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -868,17 +863,17 @@
       <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22">
-        <v>0</v>
-      </c>
-      <c r="G8" s="22"/>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="23">
-        <v>0</v>
-      </c>
-      <c r="J8" s="23"/>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="166.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -896,17 +891,17 @@
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="24">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24"/>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25"/>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="142.05000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -924,17 +919,17 @@
       <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="22">
-        <v>0</v>
-      </c>
-      <c r="G10" s="22"/>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="23">
-        <v>0</v>
-      </c>
-      <c r="J10" s="23"/>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
@@ -952,17 +947,17 @@
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="22">
-        <v>0</v>
-      </c>
-      <c r="G11" s="22"/>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="23"/>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
@@ -980,17 +975,17 @@
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22"/>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10"/>
       <c r="H12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="23">
-        <v>0</v>
-      </c>
-      <c r="J12" s="23"/>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -1008,17 +1003,17 @@
       <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="22">
-        <v>0</v>
-      </c>
-      <c r="G13" s="22"/>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="23"/>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="58.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -1036,17 +1031,17 @@
       <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22"/>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="23">
-        <v>0</v>
-      </c>
-      <c r="J14" s="23"/>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
@@ -1064,17 +1059,17 @@
       <c r="E15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
-      <c r="G15" s="24"/>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="25">
-        <v>0</v>
-      </c>
-      <c r="J15" s="25"/>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1092,17 +1087,17 @@
       <c r="E16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="24">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24"/>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="25">
-        <v>0</v>
-      </c>
-      <c r="J16" s="25"/>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -1120,17 +1115,17 @@
       <c r="E17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="24">
-        <v>0</v>
-      </c>
-      <c r="G17" s="24"/>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="25">
-        <v>0</v>
-      </c>
-      <c r="J17" s="25"/>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -1148,17 +1143,17 @@
       <c r="E18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="22">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22"/>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="23">
-        <v>0</v>
-      </c>
-      <c r="J18" s="23"/>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1176,17 +1171,17 @@
       <c r="E19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="24">
-        <v>0</v>
-      </c>
-      <c r="G19" s="24"/>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15"/>
       <c r="H19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="25">
-        <v>0</v>
-      </c>
-      <c r="J19" s="25"/>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
@@ -1204,17 +1199,17 @@
       <c r="E20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="22">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22"/>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="23">
-        <v>0</v>
-      </c>
-      <c r="J20" s="23"/>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
@@ -1232,17 +1227,17 @@
       <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="22">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22"/>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10"/>
       <c r="H21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="23">
-        <v>0</v>
-      </c>
-      <c r="J21" s="23"/>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -1260,17 +1255,17 @@
       <c r="E22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22"/>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="23">
-        <v>0</v>
-      </c>
-      <c r="J22" s="23"/>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="94.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -1288,17 +1283,17 @@
       <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="24">
-        <v>0</v>
-      </c>
-      <c r="G23" s="24"/>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15"/>
       <c r="H23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="25">
-        <v>0</v>
-      </c>
-      <c r="J23" s="25"/>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="94.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
@@ -1316,17 +1311,17 @@
       <c r="E24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="22">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22"/>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="23">
-        <v>0</v>
-      </c>
-      <c r="J24" s="23"/>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
@@ -1344,17 +1339,17 @@
       <c r="E25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="22">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22"/>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="23">
-        <v>0</v>
-      </c>
-      <c r="J25" s="23"/>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
@@ -1372,17 +1367,17 @@
       <c r="E26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22"/>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="23">
-        <v>0</v>
-      </c>
-      <c r="J26" s="23"/>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="130.05000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
@@ -1400,17 +1395,17 @@
       <c r="E27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="22">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22"/>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10"/>
       <c r="H27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="23">
-        <v>0</v>
-      </c>
-      <c r="J27" s="23"/>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="118.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
@@ -1428,17 +1423,17 @@
       <c r="E28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="22">
-        <v>0</v>
-      </c>
-      <c r="G28" s="22"/>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="23">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23"/>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="118.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -1456,17 +1451,17 @@
       <c r="E29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="22">
-        <v>0</v>
-      </c>
-      <c r="G29" s="22"/>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="23">
-        <v>0</v>
-      </c>
-      <c r="J29" s="23"/>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="166.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -1484,17 +1479,17 @@
       <c r="E30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="24">
-        <v>0</v>
-      </c>
-      <c r="G30" s="24"/>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15"/>
       <c r="H30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="25">
-        <v>0</v>
-      </c>
-      <c r="J30" s="25"/>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -1512,17 +1507,17 @@
       <c r="E31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="22"/>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10"/>
       <c r="H31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="23">
-        <v>0</v>
-      </c>
-      <c r="J31" s="23"/>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -1540,17 +1535,17 @@
       <c r="E32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22"/>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="23">
-        <v>0</v>
-      </c>
-      <c r="J32" s="23"/>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -1568,17 +1563,17 @@
       <c r="E33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22"/>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="23">
-        <v>0</v>
-      </c>
-      <c r="J33" s="23"/>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="58.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1596,17 +1591,17 @@
       <c r="E34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22"/>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10"/>
       <c r="H34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="23">
-        <v>0</v>
-      </c>
-      <c r="J34" s="23"/>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -1624,17 +1619,17 @@
       <c r="E35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="24">
-        <v>0</v>
-      </c>
-      <c r="G35" s="24"/>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15"/>
       <c r="H35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="25">
-        <v>0</v>
-      </c>
-      <c r="J35" s="25"/>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
@@ -1652,17 +1647,17 @@
       <c r="E36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="24">
-        <v>0</v>
-      </c>
-      <c r="G36" s="24"/>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15"/>
       <c r="H36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="25">
-        <v>0</v>
-      </c>
-      <c r="J36" s="25"/>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
@@ -1680,17 +1675,17 @@
       <c r="E37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="24">
-        <v>0</v>
-      </c>
-      <c r="G37" s="24"/>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15"/>
       <c r="H37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="25">
-        <v>0</v>
-      </c>
-      <c r="J37" s="25"/>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
@@ -1708,17 +1703,17 @@
       <c r="E38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="22">
-        <v>0</v>
-      </c>
-      <c r="G38" s="22"/>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="23">
-        <v>0</v>
-      </c>
-      <c r="J38" s="23"/>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
@@ -1736,17 +1731,17 @@
       <c r="E39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="24">
-        <v>0</v>
-      </c>
-      <c r="G39" s="24"/>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15"/>
       <c r="H39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="25">
-        <v>0</v>
-      </c>
-      <c r="J39" s="25"/>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
@@ -1764,17 +1759,17 @@
       <c r="E40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="22">
-        <v>0</v>
-      </c>
-      <c r="G40" s="22"/>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10"/>
       <c r="H40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="23">
-        <v>0</v>
-      </c>
-      <c r="J40" s="23"/>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
@@ -1792,17 +1787,17 @@
       <c r="E41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="22">
-        <v>0</v>
-      </c>
-      <c r="G41" s="22"/>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="23">
-        <v>0</v>
-      </c>
-      <c r="J41" s="23"/>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -1820,17 +1815,17 @@
       <c r="E42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="22">
-        <v>0</v>
-      </c>
-      <c r="G42" s="22"/>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="23">
-        <v>0</v>
-      </c>
-      <c r="J42" s="23"/>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="94.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
@@ -1848,17 +1843,17 @@
       <c r="E43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="24">
-        <v>0</v>
-      </c>
-      <c r="G43" s="24"/>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="15"/>
       <c r="H43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="25">
-        <v>0</v>
-      </c>
-      <c r="J43" s="25"/>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16"/>
     </row>
     <row r="44" spans="1:10" ht="94.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
@@ -1876,17 +1871,17 @@
       <c r="E44" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="22">
-        <v>0</v>
-      </c>
-      <c r="G44" s="22"/>
+      <c r="F44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="23">
-        <v>0</v>
-      </c>
-      <c r="J44" s="23"/>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
@@ -1904,17 +1899,17 @@
       <c r="E45" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-      <c r="G45" s="22"/>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="23">
-        <v>0</v>
-      </c>
-      <c r="J45" s="23"/>
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
@@ -1932,17 +1927,17 @@
       <c r="E46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="22">
-        <v>0</v>
-      </c>
-      <c r="G46" s="22"/>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="23">
-        <v>0</v>
-      </c>
-      <c r="J46" s="23"/>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="154.05000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
@@ -1960,17 +1955,17 @@
       <c r="E47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="24">
-        <v>0</v>
-      </c>
-      <c r="G47" s="24"/>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15"/>
       <c r="H47" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I47" s="25">
-        <v>0</v>
-      </c>
-      <c r="J47" s="25"/>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10" ht="142.05000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
@@ -1988,17 +1983,17 @@
       <c r="E48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="22">
-        <v>0</v>
-      </c>
-      <c r="G48" s="22"/>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10"/>
       <c r="H48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="23">
-        <v>0</v>
-      </c>
-      <c r="J48" s="23"/>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="166.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
@@ -2016,17 +2011,17 @@
       <c r="E49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="24">
-        <v>0</v>
-      </c>
-      <c r="G49" s="24"/>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15"/>
       <c r="H49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="25">
-        <v>0</v>
-      </c>
-      <c r="J49" s="25"/>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:10" ht="178.05" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
@@ -2044,17 +2039,17 @@
       <c r="E50" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="22">
-        <v>0</v>
-      </c>
-      <c r="G50" s="22"/>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10"/>
       <c r="H50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="23">
-        <v>0</v>
-      </c>
-      <c r="J50" s="23"/>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="130.05000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
@@ -2072,17 +2067,17 @@
       <c r="E51" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="22">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22"/>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10"/>
       <c r="H51" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="23">
-        <v>0</v>
-      </c>
-      <c r="J51" s="23"/>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
@@ -2100,17 +2095,17 @@
       <c r="E52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="22">
-        <v>0</v>
-      </c>
-      <c r="G52" s="22"/>
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10"/>
       <c r="H52" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="23">
-        <v>0</v>
-      </c>
-      <c r="J52" s="23"/>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
@@ -2128,17 +2123,17 @@
       <c r="E53" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="22">
-        <v>0</v>
-      </c>
-      <c r="G53" s="22"/>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10"/>
       <c r="H53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="23">
-        <v>0</v>
-      </c>
-      <c r="J53" s="23"/>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
@@ -2156,17 +2151,17 @@
       <c r="E54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="22">
-        <v>0</v>
-      </c>
-      <c r="G54" s="22"/>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10"/>
       <c r="H54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="23">
-        <v>0</v>
-      </c>
-      <c r="J54" s="23"/>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="58.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
@@ -2184,17 +2179,17 @@
       <c r="E55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="22">
-        <v>0</v>
-      </c>
-      <c r="G55" s="22"/>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10"/>
       <c r="H55" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="23">
-        <v>0</v>
-      </c>
-      <c r="J55" s="23"/>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
@@ -2212,17 +2207,17 @@
       <c r="E56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="24">
-        <v>0</v>
-      </c>
-      <c r="G56" s="24"/>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15"/>
       <c r="H56" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="25">
-        <v>0</v>
-      </c>
-      <c r="J56" s="25"/>
+      <c r="I56" s="16">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
@@ -2240,17 +2235,17 @@
       <c r="E57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="24">
-        <v>0</v>
-      </c>
-      <c r="G57" s="24"/>
+      <c r="F57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="15"/>
       <c r="H57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="25">
-        <v>0</v>
-      </c>
-      <c r="J57" s="25"/>
+      <c r="I57" s="16">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16"/>
     </row>
     <row r="58" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
@@ -2268,17 +2263,17 @@
       <c r="E58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="22">
-        <v>0</v>
-      </c>
-      <c r="G58" s="22"/>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10"/>
       <c r="H58" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I58" s="23">
-        <v>0</v>
-      </c>
-      <c r="J58" s="23"/>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
@@ -2296,17 +2291,17 @@
       <c r="E59" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="24">
-        <v>0</v>
-      </c>
-      <c r="G59" s="24"/>
+      <c r="F59" s="15">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15"/>
       <c r="H59" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="25">
-        <v>0</v>
-      </c>
-      <c r="J59" s="25"/>
+      <c r="I59" s="16">
+        <v>0</v>
+      </c>
+      <c r="J59" s="16"/>
     </row>
     <row r="60" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
@@ -2324,17 +2319,17 @@
       <c r="E60" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="22">
-        <v>0</v>
-      </c>
-      <c r="G60" s="22"/>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10"/>
       <c r="H60" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="23">
-        <v>0</v>
-      </c>
-      <c r="J60" s="23"/>
+      <c r="I60" s="11">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
@@ -2352,17 +2347,17 @@
       <c r="E61" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="24">
-        <v>0</v>
-      </c>
-      <c r="G61" s="24"/>
+      <c r="F61" s="15">
+        <v>0</v>
+      </c>
+      <c r="G61" s="15"/>
       <c r="H61" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="25">
-        <v>0</v>
-      </c>
-      <c r="J61" s="25"/>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16"/>
     </row>
     <row r="62" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
@@ -2380,17 +2375,17 @@
       <c r="E62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="22">
-        <v>0</v>
-      </c>
-      <c r="G62" s="22"/>
+      <c r="F62" s="10">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10"/>
       <c r="H62" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I62" s="23">
-        <v>0</v>
-      </c>
-      <c r="J62" s="23"/>
+      <c r="I62" s="11">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
@@ -2408,17 +2403,17 @@
       <c r="E63" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="22">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22"/>
+      <c r="F63" s="10">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10"/>
       <c r="H63" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I63" s="23">
-        <v>0</v>
-      </c>
-      <c r="J63" s="23"/>
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" ht="82.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
@@ -2436,17 +2431,17 @@
       <c r="E64" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-      <c r="G64" s="22"/>
+      <c r="F64" s="10">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10"/>
       <c r="H64" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I64" s="23">
-        <v>0</v>
-      </c>
-      <c r="J64" s="23"/>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="94.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
@@ -2464,17 +2459,17 @@
       <c r="E65" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="24">
-        <v>0</v>
-      </c>
-      <c r="G65" s="24"/>
+      <c r="F65" s="15">
+        <v>0</v>
+      </c>
+      <c r="G65" s="15"/>
       <c r="H65" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="25">
-        <v>0</v>
-      </c>
-      <c r="J65" s="25"/>
+      <c r="I65" s="16">
+        <v>0</v>
+      </c>
+      <c r="J65" s="16"/>
     </row>
     <row r="66" spans="1:10" ht="94.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
@@ -2492,17 +2487,17 @@
       <c r="E66" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="22">
-        <v>0</v>
-      </c>
-      <c r="G66" s="22"/>
+      <c r="F66" s="10">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10"/>
       <c r="H66" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I66" s="23">
-        <v>0</v>
-      </c>
-      <c r="J66" s="23"/>
+      <c r="I66" s="11">
+        <v>0</v>
+      </c>
+      <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
@@ -2520,17 +2515,17 @@
       <c r="E67" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="22">
-        <v>0</v>
-      </c>
-      <c r="G67" s="22"/>
+      <c r="F67" s="10">
+        <v>0</v>
+      </c>
+      <c r="G67" s="10"/>
       <c r="H67" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="23">
-        <v>0</v>
-      </c>
-      <c r="J67" s="23"/>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="70.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
@@ -2548,36 +2543,155 @@
       <c r="E68" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F68" s="22">
-        <v>0</v>
-      </c>
-      <c r="G68" s="22"/>
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
+      <c r="G68" s="10"/>
       <c r="H68" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="23">
-        <v>0</v>
-      </c>
-      <c r="J68" s="23"/>
+      <c r="I68" s="11">
+        <v>0</v>
+      </c>
+      <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27">
-        <v>0</v>
-      </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28">
-        <v>0</v>
-      </c>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14">
+        <v>0</v>
+      </c>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="I62:J62"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="I68:J68"/>
     <mergeCell ref="A69:D69"/>
@@ -2593,125 +2707,6 @@
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="I67:J67"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
